--- a/ONCHO/Impact Assessments/Nigeria/2023/jagawa case/ng_oncho_prestop_1_site_202208_jigawa.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2023/jagawa case/ng_oncho_prestop_1_site_202208_jigawa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repositories\WHO\dsa-forms\ONCHO\Impact Assessments\Nigeria\2023\jagawa case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DC96FDB-F964-4088-B422-4964CD329BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FEFFA8-E465-483F-909B-8969B0B7032A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="165">
   <si>
     <t>type</t>
   </si>
@@ -395,58 +395,142 @@
     <t>Site Code</t>
   </si>
   <si>
-    <t>Giginya Bakwai </t>
-  </si>
-  <si>
     <t>Gogiya </t>
   </si>
   <si>
     <t>Dogon/Danji </t>
   </si>
   <si>
-    <t>Hadin </t>
-  </si>
-  <si>
-    <t>Toni Kutara </t>
-  </si>
-  <si>
-    <t>Daurawa (Chaichai) </t>
-  </si>
-  <si>
     <t>Zangokaya </t>
   </si>
   <si>
-    <t>Gilima </t>
-  </si>
-  <si>
     <t>Jigawa </t>
   </si>
   <si>
-    <t>Buji </t>
-  </si>
-  <si>
-    <t>Guri </t>
-  </si>
-  <si>
-    <t>Kaugama </t>
-  </si>
-  <si>
-    <t>Mallam Maduri </t>
-  </si>
-  <si>
-    <t>Ringim </t>
-  </si>
-  <si>
-    <t>Roni </t>
-  </si>
-  <si>
-    <t>Taura </t>
-  </si>
-  <si>
     <t>ng_oncho_prestop_1_site_202208_jigawa</t>
   </si>
   <si>
     <t>(2023 Fev) ONCHO PreStop - 1. Site Form (Jigawa)</t>
+  </si>
+  <si>
+    <t>Buji</t>
+  </si>
+  <si>
+    <t>Birnin Kudu</t>
+  </si>
+  <si>
+    <t>Gwaram</t>
+  </si>
+  <si>
+    <t>Jahun</t>
+  </si>
+  <si>
+    <t>Kazaure</t>
+  </si>
+  <si>
+    <t>Roni</t>
+  </si>
+  <si>
+    <t>Ringim</t>
+  </si>
+  <si>
+    <t>Taura</t>
+  </si>
+  <si>
+    <t>Birniwa</t>
+  </si>
+  <si>
+    <t>Kirikassamma</t>
+  </si>
+  <si>
+    <t>Guri</t>
+  </si>
+  <si>
+    <t>Auyo</t>
+  </si>
+  <si>
+    <t>Malam Madori</t>
+  </si>
+  <si>
+    <t>Kafin Hausa</t>
+  </si>
+  <si>
+    <t>Kaugama</t>
+  </si>
+  <si>
+    <t>Dutse</t>
+  </si>
+  <si>
+    <t>Giginya-Bakwai</t>
+  </si>
+  <si>
+    <t>Shungurin</t>
+  </si>
+  <si>
+    <t>Badingu</t>
+  </si>
+  <si>
+    <t>Chediya</t>
+  </si>
+  <si>
+    <t>Sumangara</t>
+  </si>
+  <si>
+    <t>Darai</t>
+  </si>
+  <si>
+    <t>Doro</t>
+  </si>
+  <si>
+    <t>Daba</t>
+  </si>
+  <si>
+    <t>Sululu</t>
+  </si>
+  <si>
+    <t>Unguwan Kaya</t>
+  </si>
+  <si>
+    <t>Daurawa</t>
+  </si>
+  <si>
+    <t>Gilima</t>
+  </si>
+  <si>
+    <t>Daglifani</t>
+  </si>
+  <si>
+    <t>Matara Uku</t>
+  </si>
+  <si>
+    <t>Turabu</t>
+  </si>
+  <si>
+    <t>Matarar Ganji</t>
+  </si>
+  <si>
+    <t>Gagiya</t>
+  </si>
+  <si>
+    <t>Gamsarka</t>
+  </si>
+  <si>
+    <t>Toni Kutara</t>
+  </si>
+  <si>
+    <t>Adaraushe Soro</t>
+  </si>
+  <si>
+    <t>Ashuran Makera</t>
+  </si>
+  <si>
+    <t>Hadin</t>
+  </si>
+  <si>
+    <t>Warwade</t>
+  </si>
+  <si>
+    <t>Jidawa</t>
   </si>
 </sst>
 </file>
@@ -569,7 +653,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -609,11 +693,60 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1368,11 +1501,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+      <pane ySplit="1" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1665,10 +1798,10 @@
         <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="9"/>
@@ -1684,13 +1817,13 @@
         <v>88</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E25" s="9"/>
     </row>
@@ -1699,13 +1832,13 @@
         <v>88</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E26" s="9"/>
     </row>
@@ -1714,13 +1847,13 @@
         <v>88</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E27" s="9"/>
     </row>
@@ -1729,13 +1862,13 @@
         <v>88</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E28" s="9"/>
     </row>
@@ -1744,13 +1877,13 @@
         <v>88</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E29" s="9"/>
     </row>
@@ -1759,13 +1892,13 @@
         <v>88</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E30" s="9"/>
     </row>
@@ -1774,244 +1907,918 @@
         <v>88</v>
       </c>
       <c r="B31" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E32" s="21"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="21"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="21"/>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="21"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C36" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D36" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E36" s="21"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="21"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E40" s="21"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="21"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" t="s">
+        <v>160</v>
+      </c>
+      <c r="E42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>161</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E43" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" t="s">
+        <v>143</v>
+      </c>
+      <c r="C44" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="E45" t="s">
         <v>127</v>
       </c>
-      <c r="E31" s="9"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
         <v>89</v>
       </c>
-      <c r="B33" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="B46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="E50" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
+      </c>
+      <c r="C51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>158</v>
+      </c>
+      <c r="E53" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" t="s">
+        <v>141</v>
+      </c>
+      <c r="E54" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>89</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B56" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" t="s">
+        <v>164</v>
+      </c>
+      <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="E58" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s">
+        <v>154</v>
+      </c>
+      <c r="E59" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>89</v>
+      </c>
+      <c r="B60" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" t="s">
+        <v>142</v>
+      </c>
+      <c r="C61" t="s">
+        <v>142</v>
+      </c>
+      <c r="E61" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>89</v>
+      </c>
+      <c r="B62" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" t="s">
+        <v>149</v>
+      </c>
+      <c r="E62" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>89</v>
+      </c>
+      <c r="B63" t="s">
+        <v>145</v>
+      </c>
+      <c r="C63" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" t="s">
+        <v>159</v>
+      </c>
+      <c r="E64" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>89</v>
+      </c>
+      <c r="B65" t="s">
+        <v>155</v>
+      </c>
+      <c r="C65" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>89</v>
+      </c>
+      <c r="B66" t="s">
+        <v>150</v>
+      </c>
+      <c r="C66" t="s">
+        <v>150</v>
+      </c>
+      <c r="E66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+      <c r="B68" t="s">
         <v>121</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C68" t="s">
         <v>121</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E68" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" t="s">
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70">
+        <v>201</v>
+      </c>
+      <c r="C70">
+        <v>201</v>
+      </c>
+      <c r="F70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71">
+        <v>202</v>
+      </c>
+      <c r="C71">
+        <v>202</v>
+      </c>
+      <c r="F71" t="s">
         <v>119</v>
       </c>
-      <c r="C35" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>126</v>
-      </c>
-      <c r="C36" t="s">
-        <v>126</v>
-      </c>
-      <c r="E36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>111</v>
+      </c>
+      <c r="B72">
+        <v>203</v>
+      </c>
+      <c r="C72">
+        <v>203</v>
+      </c>
+      <c r="F72" t="s">
         <v>120</v>
       </c>
-      <c r="C37" t="s">
-        <v>120</v>
-      </c>
-      <c r="E37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" t="s">
-        <v>122</v>
-      </c>
-      <c r="E38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>89</v>
-      </c>
-      <c r="B39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" t="s">
-        <v>123</v>
-      </c>
-      <c r="E39" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
         <v>111</v>
       </c>
-      <c r="B42">
-        <v>201</v>
-      </c>
-      <c r="C42">
-        <v>201</v>
-      </c>
-      <c r="F42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="B73">
+        <v>204</v>
+      </c>
+      <c r="C73">
+        <v>204</v>
+      </c>
+      <c r="F73" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
         <v>111</v>
       </c>
-      <c r="B43">
-        <v>202</v>
-      </c>
-      <c r="C43">
-        <v>202</v>
-      </c>
-      <c r="F43" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="B74">
+        <v>205</v>
+      </c>
+      <c r="C74">
+        <v>205</v>
+      </c>
+      <c r="F74" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
         <v>111</v>
       </c>
-      <c r="B44">
-        <v>203</v>
-      </c>
-      <c r="C44">
-        <v>203</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="B75">
+        <v>206</v>
+      </c>
+      <c r="C75">
+        <v>206</v>
+      </c>
+      <c r="F75" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76">
+        <v>207</v>
+      </c>
+      <c r="C76">
+        <v>207</v>
+      </c>
+      <c r="F76" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
         <v>111</v>
       </c>
-      <c r="B45">
-        <v>204</v>
-      </c>
-      <c r="C45">
-        <v>204</v>
-      </c>
-      <c r="F45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+      <c r="B77">
+        <v>208</v>
+      </c>
+      <c r="C77">
+        <v>208</v>
+      </c>
+      <c r="F77" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
         <v>111</v>
       </c>
-      <c r="B46">
-        <v>205</v>
-      </c>
-      <c r="C46">
-        <v>205</v>
-      </c>
-      <c r="F46" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+      <c r="B78">
+        <v>209</v>
+      </c>
+      <c r="C78">
+        <v>209</v>
+      </c>
+      <c r="F78" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
         <v>111</v>
       </c>
-      <c r="B47">
-        <v>206</v>
-      </c>
-      <c r="C47">
-        <v>206</v>
-      </c>
-      <c r="F47" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+      <c r="B79">
+        <v>210</v>
+      </c>
+      <c r="C79">
+        <v>210</v>
+      </c>
+      <c r="F79" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
         <v>111</v>
       </c>
-      <c r="B48">
-        <v>207</v>
-      </c>
-      <c r="C48">
-        <v>207</v>
-      </c>
-      <c r="F48" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+      <c r="B80">
+        <v>211</v>
+      </c>
+      <c r="C80">
+        <v>211</v>
+      </c>
+      <c r="F80" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
         <v>111</v>
       </c>
-      <c r="B49">
-        <v>208</v>
-      </c>
-      <c r="C49">
-        <v>208</v>
-      </c>
-      <c r="F49" t="s">
-        <v>126</v>
+      <c r="B81">
+        <v>212</v>
+      </c>
+      <c r="C81">
+        <v>212</v>
+      </c>
+      <c r="F81" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>111</v>
+      </c>
+      <c r="B82">
+        <v>213</v>
+      </c>
+      <c r="C82">
+        <v>213</v>
+      </c>
+      <c r="F82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>111</v>
+      </c>
+      <c r="B83">
+        <v>214</v>
+      </c>
+      <c r="C83">
+        <v>214</v>
+      </c>
+      <c r="F83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84">
+        <v>215</v>
+      </c>
+      <c r="C84">
+        <v>215</v>
+      </c>
+      <c r="F84" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>111</v>
+      </c>
+      <c r="B85">
+        <v>216</v>
+      </c>
+      <c r="C85">
+        <v>216</v>
+      </c>
+      <c r="F85" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86">
+        <v>217</v>
+      </c>
+      <c r="C86">
+        <v>217</v>
+      </c>
+      <c r="F86" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B87">
+        <v>218</v>
+      </c>
+      <c r="C87">
+        <v>218</v>
+      </c>
+      <c r="F87" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>111</v>
+      </c>
+      <c r="B88">
+        <v>219</v>
+      </c>
+      <c r="C88">
+        <v>219</v>
+      </c>
+      <c r="F88" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89">
+        <v>220</v>
+      </c>
+      <c r="C89">
+        <v>220</v>
+      </c>
+      <c r="F89" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90">
+        <v>221</v>
+      </c>
+      <c r="C90">
+        <v>221</v>
+      </c>
+      <c r="F90" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>111</v>
+      </c>
+      <c r="B91">
+        <v>222</v>
+      </c>
+      <c r="C91">
+        <v>222</v>
+      </c>
+      <c r="F91" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>111</v>
+      </c>
+      <c r="B92">
+        <v>223</v>
+      </c>
+      <c r="C92">
+        <v>223</v>
+      </c>
+      <c r="F92" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>111</v>
+      </c>
+      <c r="B93">
+        <v>224</v>
+      </c>
+      <c r="C93">
+        <v>224</v>
+      </c>
+      <c r="F93" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>111</v>
+      </c>
+      <c r="B94">
+        <v>225</v>
+      </c>
+      <c r="C94">
+        <v>225</v>
+      </c>
+      <c r="F94" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95">
+        <v>226</v>
+      </c>
+      <c r="C95">
+        <v>226</v>
+      </c>
+      <c r="F95" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B96">
+        <v>227</v>
+      </c>
+      <c r="C96">
+        <v>227</v>
+      </c>
+      <c r="F96" t="s">
+        <v>164</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A33:E40">
-    <sortCondition ref="A33:A40"/>
-    <sortCondition ref="E33:E40"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A42:E49">
+    <sortCondition ref="A42:A49"/>
+    <sortCondition ref="E42:E49"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2044,10 +2851,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
         <v>115</v>
@@ -2061,10 +2868,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:K9"/>
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
@@ -2073,8 +2880,8 @@
     <col min="2" max="2" width="13.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
     <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2107,216 +2914,663 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="17" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="D2">
         <v>201</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>127</v>
+      <c r="G2" t="s">
+        <v>122</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="C3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D3">
         <v>202</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D4">
         <v>203</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C5" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="D5">
         <v>204</v>
       </c>
       <c r="G5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" t="s">
+        <v>125</v>
+      </c>
+      <c r="J5" t="s">
         <v>127</v>
       </c>
-      <c r="H5" t="s">
-        <v>131</v>
-      </c>
-      <c r="J5" t="s">
-        <v>134</v>
-      </c>
       <c r="K5" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B6" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="C6" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="D6">
         <v>205</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="J6" t="s">
         <v>129</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" t="s">
-        <v>124</v>
+        <v>131</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>151</v>
       </c>
       <c r="D7">
         <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="J7" t="s">
         <v>133</v>
       </c>
-      <c r="J7" t="s">
-        <v>130</v>
-      </c>
       <c r="K7" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D8">
         <v>207</v>
       </c>
       <c r="G8" t="s">
+        <v>122</v>
+      </c>
+      <c r="H8" t="s">
         <v>127</v>
       </c>
-      <c r="H8" t="s">
-        <v>134</v>
-      </c>
       <c r="J8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K8" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="D9">
         <v>208</v>
       </c>
+      <c r="G9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H9" t="s">
+        <v>128</v>
+      </c>
       <c r="J9" t="s">
+        <v>131</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D10">
+        <v>209</v>
+      </c>
+      <c r="G10" t="s">
+        <v>122</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" t="s">
+        <v>139</v>
+      </c>
+      <c r="K10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11">
+        <v>210</v>
+      </c>
+      <c r="G11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+      <c r="K11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12">
+        <v>211</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J12" t="s">
+        <v>135</v>
+      </c>
+      <c r="K12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13">
+        <v>212</v>
+      </c>
+      <c r="G13" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14">
+        <v>213</v>
+      </c>
+      <c r="G14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" t="s">
+        <v>147</v>
+      </c>
+      <c r="D15">
+        <v>214</v>
+      </c>
+      <c r="G15" t="s">
+        <v>122</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>132</v>
+      </c>
+      <c r="K15" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16">
+        <v>215</v>
+      </c>
+      <c r="G16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H16" t="s">
+        <v>130</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" t="s">
+        <v>149</v>
+      </c>
+      <c r="D17">
+        <v>216</v>
+      </c>
+      <c r="G17" t="s">
+        <v>122</v>
+      </c>
+      <c r="H17" t="s">
+        <v>132</v>
+      </c>
+      <c r="J17" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18">
+        <v>217</v>
+      </c>
+      <c r="J18" t="s">
+        <v>140</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" t="s">
         <v>133</v>
       </c>
-      <c r="K9" t="s">
-        <v>125</v>
+      <c r="C19" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19">
+        <v>218</v>
+      </c>
+      <c r="J19" t="s">
+        <v>133</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D20">
+        <v>219</v>
+      </c>
+      <c r="J20" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D21">
+        <v>220</v>
+      </c>
+      <c r="J21" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>134</v>
+      </c>
+      <c r="C22" t="s">
+        <v>156</v>
+      </c>
+      <c r="D22">
+        <v>221</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D23">
+        <v>222</v>
+      </c>
+      <c r="J23" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>136</v>
+      </c>
+      <c r="C24" t="s">
+        <v>158</v>
+      </c>
+      <c r="D24">
+        <v>223</v>
+      </c>
+      <c r="J24" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" t="s">
+        <v>138</v>
+      </c>
+      <c r="C25" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25">
+        <v>224</v>
+      </c>
+      <c r="J25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="C26" t="s">
+        <v>161</v>
+      </c>
+      <c r="D26">
+        <v>225</v>
+      </c>
+      <c r="J26" t="s">
+        <v>130</v>
+      </c>
+      <c r="K26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" t="s">
+        <v>163</v>
+      </c>
+      <c r="D27">
+        <v>226</v>
+      </c>
+      <c r="J27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
+        <v>164</v>
+      </c>
+      <c r="D28">
+        <v>227</v>
+      </c>
+      <c r="J28" t="s">
+        <v>130</v>
+      </c>
+      <c r="K28" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K24">
-    <sortCondition ref="K2:K24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J2:K28">
+    <sortCondition ref="K2:K28"/>
   </sortState>
   <conditionalFormatting sqref="C1:D1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29:K1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K28">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="K1:K28">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>